--- a/public/templates/template_siswa.xlsx
+++ b/public/templates/template_siswa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TOSHIBA\Videos\Aplikasi_E-Learning\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TOSHIBA\Videos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B168D5-AA48-4FC3-8396-CDFD6B45B87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B843CFD0-A06B-4084-A5E9-5F112F88D8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>nis</t>
   </si>
@@ -70,94 +70,10 @@
     <t>Tanjungrejo, Rt. 1, Rw. 5, Kel. Tanjung Rejo, Kec. Jekulo</t>
   </si>
   <si>
-    <t>Klaling RT 4 RW 4, Rt. 4, Rw. 4, Kel. Klaling, Kec. Jekulo</t>
-  </si>
-  <si>
-    <t>Kauman, Rt. 2, Rw. 4, Kel. Ngembal Rejo, Kec. Bae</t>
-  </si>
-  <si>
-    <t>Klaling, Rt. 4, Rw. 4, Kel. Jekulo, Kec. Jekulo</t>
-  </si>
-  <si>
-    <t>Tanjungrejo RT 3 RW 4, Rt. 3, Rw. 4, Kel. Tanjung Rejo, Kec. Jekulo</t>
-  </si>
-  <si>
-    <t>Tanjungrejo, Rt. 1, Rw. 6, Kel. Tanjungrejo, Kec. Jekulo</t>
-  </si>
-  <si>
-    <t>Kambang, Rt. 4, Rw. 3, Kel. Klaling, Kec. Jekulo</t>
-  </si>
-  <si>
-    <t>Tanjungrejo, Rt. 2, Rw. 9, Kel. Tanjung Rejo, Kec. Jekulo</t>
-  </si>
-  <si>
-    <t>Tanjungrejo RT 04/ RW V, Rt. 4, Rw. 5, Kel. Tanjungrejo, Kec. Jekulo</t>
-  </si>
-  <si>
-    <t>Klaling, Rt. 6, Rw. 1, Kel. Klaling, Kec. Jekulo</t>
-  </si>
-  <si>
-    <t>Tanjungrejo RT 9 RW 6, Rt. 9, Rw. 6, Kel. Tanjungrejo, Kec. Jekulo</t>
-  </si>
-  <si>
-    <t>Hadipolo, Rt. 5, Rw. 5, Kel. Hadipolo, Kec. Jekulo</t>
-  </si>
-  <si>
-    <t>Hadipolo, Rt. 8, Rw. 4, Kel. Hadipolo, Kec. Jekulo</t>
-  </si>
-  <si>
-    <t>Klaling Kambang RT 05 RW 03, Rt. 5, Rw. 3, Kel. Klaling, Kec. Jekulo</t>
-  </si>
-  <si>
-    <t>Hadipolo, Rt. 2, Rw. 5, Kel. Hadipolo, Kec. Jekulo</t>
-  </si>
-  <si>
-    <t>Klaling Kauman RT.4 RW.2, Rt. 4, Rw. 2, Kel. Klaling, Kec. Jekulo</t>
-  </si>
-  <si>
-    <t>Bulung Cangkring, Rt. 4, Rw. 15, Kel. Bulung Cangkring, Kec. Jekulo</t>
-  </si>
-  <si>
-    <t>Tanjungrejo RT 2 RW 5, Rt. 2, Rw. 5, Kel. Tanjungrejo, Kec. Jekulo</t>
-  </si>
-  <si>
-    <t>Gerbongan, Rt. 2, Rw. 1, Kel. Honggosoco, Kec. Jekulo</t>
-  </si>
-  <si>
-    <t>Klaling, Rt. 1, Rw. 3, Kel. Klaling, Kec. Jekulo</t>
-  </si>
-  <si>
-    <t>Bulung Kulon, Rt. 2, Rw. 1, Kel. Bulung Kulon, Kec. Jekulo</t>
-  </si>
-  <si>
-    <t>Tanjungrejo RT 5 RW 6, Rt. 5, Rw. 6, Kel. Tanjungrejo, Kec. Jekulo</t>
-  </si>
-  <si>
-    <t>Tanjungrejo, Rt. 5, Rw. 1, Kel. Tanjungrejo, Kec. Jekulo</t>
-  </si>
-  <si>
-    <t>Honggosoco, Rt. 3, Rw. 5, Kel. Honggosoco, Kec. Jekulo</t>
-  </si>
-  <si>
-    <t>Tanjungrejo, Rt. 7, Rw. 6, Kel. Tanjung Rejo, Kec. Jekulo</t>
-  </si>
-  <si>
-    <t>Klaling, Rt. 1, Rw. 5, Kel. Klaling, Kec. Jekulo</t>
-  </si>
-  <si>
-    <t>Tanjungrejo, Rt. 1, Rw. 3, Kel. Tanjung Rejo, Kec. Jekulo</t>
-  </si>
-  <si>
-    <t>Tanjungrejo RT 03 RW 02 Jekulo Kudus 59382, Rt. 3, Rw. 2, Kel. Tanjung Rejo, Kec. Jekulo</t>
-  </si>
-  <si>
-    <t>Hadipolo, Rt. 6, Rw. 2, Kel. Hadipolo, Kec. Jekulo</t>
-  </si>
-  <si>
-    <t>Klaling, Rt. 10, Rw. 4, Kel. Klaling, Kec. Jekulo</t>
-  </si>
-  <si>
-    <t>Kandangmas, Rt. 3, Rw. 9, Kel. Kandangmas, Kec. Dawe</t>
+    <t>tgl_lahir</t>
+  </si>
+  <si>
+    <t>30 November 2010</t>
   </si>
 </sst>
 </file>
@@ -198,7 +114,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,8 +127,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -235,34 +157,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -275,6 +190,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,13 +564,14 @@
     <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="55.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -651,370 +589,345 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="H1" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>9184</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="13" t="s">
+      <c r="H2" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="13" t="s">
-        <v>42</v>
-      </c>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="15"/>
     </row>
   </sheetData>
   <protectedRanges>
